--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Documents/uni/info/4.Semester/Software Engineering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Documents/uni/info/4.Semester/Software Engineering/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58EC976-8A09-674A-B74C-16D09AC7E6B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E58FA-F8C2-AD41-8E2F-6C71F9CF83AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>UMLFertigstellung und SW-Architektur</t>
+  </si>
+  <si>
+    <t>Teambesprechung Konzept + Skeleton</t>
+  </si>
+  <si>
+    <t>Versuch, mysql zu integrieren</t>
   </si>
 </sst>
 </file>
@@ -523,14 +529,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
@@ -647,19 +653,46 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="8">
+        <v>43905</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8">
+        <v>43906</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>43906</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Documents/uni/info/4.Semester/Software Engineering/g2t2/Documentation/Time Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E58FA-F8C2-AD41-8E2F-6C71F9CF83AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A0E66D-0565-F249-945C-8CABF1B982CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Versuch, mysql zu integrieren</t>
+  </si>
+  <si>
+    <t>Workshop Bluetooth LE</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -695,19 +698,35 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>43906</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>43913</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
       <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Documents/uni/info/4.Semester/Software Engineering/g2t2/Documentation/Time Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E58FA-F8C2-AD41-8E2F-6C71F9CF83AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB03F57-34A1-8B4B-9104-5B62CA889896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Versuch, mysql zu integrieren</t>
+  </si>
+  <si>
+    <t>Workshop Bluetooth LE</t>
+  </si>
+  <si>
+    <t>Ecuador einbauen</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -529,7 +538,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -695,24 +704,60 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>43906</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>43913</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>43916</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A0E66D-0565-F249-945C-8CABF1B982CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB03F57-34A1-8B4B-9104-5B62CA889896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Workshop Bluetooth LE</t>
+  </si>
+  <si>
+    <t>Ecuador einbauen</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -726,12 +732,32 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="7"/>
+      <c r="A14" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>43916</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB03F57-34A1-8B4B-9104-5B62CA889896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE822F-44A4-F04D-A374-419C03CE9DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>E-Mail-Adresse erstellen und im Projekt konfigurieren</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -760,9 +763,18 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>43921</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE822F-44A4-F04D-A374-419C03CE9DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4900AC6E-D888-9342-8509-2AAF838D8A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>E-Mail-Adresse erstellen und im Projekt konfigurieren</t>
+  </si>
+  <si>
+    <t>UI</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -777,9 +780,18 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>43925</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4900AC6E-D888-9342-8509-2AAF838D8A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193A7D8-3F12-2845-BBC2-7E2FC4BDF03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>UI</t>
+  </si>
+  <si>
+    <t>Scheduled mails</t>
+  </si>
+  <si>
+    <t>git repository aufgeräumt</t>
   </si>
 </sst>
 </file>
@@ -544,7 +550,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -794,19 +800,46 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>43927</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>43928</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>43931</v>
+      </c>
+      <c r="B20" s="7">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193A7D8-3F12-2845-BBC2-7E2FC4BDF03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24341FA8-4177-BA41-99B5-3F3C89590565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>git repository aufgeräumt</t>
+  </si>
+  <si>
+    <t>Rest api vorlage eingebunden</t>
+  </si>
+  <si>
+    <t>teams verwalten</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -744,7 +750,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="8">
         <v>43916</v>
       </c>
       <c r="B14" s="7">
@@ -842,19 +848,32 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>43933</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A22" s="8">
+        <v>43934</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8"/>
@@ -5754,7 +5773,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1000</xm:sqref>
+          <xm:sqref>C24:C1000 C2:C22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24341FA8-4177-BA41-99B5-3F3C89590565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90B3440-2850-6641-AC1F-AEA1810B637B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>teams verwalten</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Team und Department</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -875,10 +881,33 @@
         <v>33</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B23" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>43936</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90B3440-2850-6641-AC1F-AEA1810B637B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A312A3FD-ED62-D443-9E7D-E87FD86DFE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -562,7 +562,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -883,7 +883,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B23" s="7">
         <v>8.3333333333333329E-2</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B24" s="7">
         <v>0.16666666666666666</v>
@@ -910,9 +910,18 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>43938</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A312A3FD-ED62-D443-9E7D-E87FD86DFE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298637B0-2D49-EC45-A81B-9D78F2896F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Team und Department</t>
+  </si>
+  <si>
+    <t>Teambesprechung</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -924,14 +927,32 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>43940</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>43940</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298637B0-2D49-EC45-A81B-9D78F2896F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF95AF-902E-3949-9462-96F3A268DF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Teambesprechung</t>
+  </si>
+  <si>
+    <t>team backend verändert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">department backend verändert </t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -955,19 +961,46 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>43941</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>43943</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>43944</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF95AF-902E-3949-9462-96F3A268DF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ABF906-FDAD-744C-B864-C0036E307D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t xml:space="preserve">department backend verändert </t>
+  </si>
+  <si>
+    <t>team frontend verändert</t>
+  </si>
+  <si>
+    <t>department frontend verändert</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1003,14 +1009,32 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>43946</v>
+      </c>
+      <c r="B31" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>43947</v>
+      </c>
+      <c r="B32" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ABF906-FDAD-744C-B864-C0036E307D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F14E33-7C3F-0A45-980F-D1270C0D7FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -577,7 +577,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1037,9 +1037,18 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>43948</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F14E33-7C3F-0A45-980F-D1270C0D7FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33788DB2-7D2E-CA46-9DA4-F2D99A315136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>department frontend verändert</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Nachbesserungen Frontend</t>
   </si>
 </sst>
 </file>
@@ -574,10 +580,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1051,19 +1057,46 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>43950</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>43951</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>43952</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33788DB2-7D2E-CA46-9DA4-F2D99A315136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD4E86-8FE9-684E-8D6A-231141148EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Nachbesserungen Frontend</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Feiertage einbinden</t>
   </si>
 </sst>
 </file>
@@ -580,10 +586,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1099,24 +1105,60 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B37" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>43956</v>
+      </c>
+      <c r="B40" s="7">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33788DB2-7D2E-CA46-9DA4-F2D99A315136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190039E0-70FD-3045-99B9-F92708A40D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Tätigkeiten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,27 @@
   </si>
   <si>
     <t>Nachbesserungen Frontend</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Feiertage einbinden</t>
+  </si>
+  <si>
+    <t>Statistiken Start</t>
+  </si>
+  <si>
+    <t>Tägliche und wöchentliche Statistiken User</t>
+  </si>
+  <si>
+    <t>faces message view</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>Edit Tasks</t>
   </si>
 </sst>
 </file>
@@ -580,10 +601,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1099,49 +1120,130 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B37" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>43956</v>
+      </c>
+      <c r="B40" s="7">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>43957</v>
+      </c>
+      <c r="B41" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>43958</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>43961</v>
+      </c>
+      <c r="B43" s="7">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>43961</v>
+      </c>
+      <c r="B44" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8">
+        <v>43962</v>
+      </c>
+      <c r="B45" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190039E0-70FD-3045-99B9-F92708A40D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE16E6-F4DC-2245-A19C-2C1F53A344D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -191,6 +191,24 @@
   <si>
     <t>Edit Tasks</t>
   </si>
+  <si>
+    <t>Displaying Tasks</t>
+  </si>
+  <si>
+    <t>Editing Tasks</t>
+  </si>
+  <si>
+    <t>Filter Tasks</t>
+  </si>
+  <si>
+    <t>User Deletion</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Resolving Issues</t>
+  </si>
 </sst>
 </file>
 
@@ -286,7 +304,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,10 +619,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1246,64 +1264,172 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8">
+        <v>43963</v>
+      </c>
+      <c r="B46" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>43964</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>43965</v>
+      </c>
+      <c r="B48" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>43968</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>43968</v>
+      </c>
+      <c r="B50" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>43969</v>
+      </c>
+      <c r="B51" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>43971</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="8">
+        <v>43971</v>
+      </c>
+      <c r="B53" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>43972</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>43974</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="8">
+        <v>43975</v>
+      </c>
+      <c r="B56" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="8">
+        <v>43975</v>
+      </c>
+      <c r="B57" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="8"/>
@@ -6033,7 +6159,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C24:C1000 C2:C22</xm:sqref>
+          <xm:sqref>C2:C22 C24:C48 C50:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DE16E6-F4DC-2245-A19C-2C1F53A344D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1FA3BB-03C0-7747-8CBB-CF2312BFAD68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -619,10 +619,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1432,9 +1432,18 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>43978</v>
+      </c>
+      <c r="B58" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1FA3BB-03C0-7747-8CBB-CF2312BFAD68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6F9C4-1C0E-9542-904B-7A18216074C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -209,6 +209,9 @@
   <si>
     <t>Resolving Issues</t>
   </si>
+  <si>
+    <t>Abnahmetest + Testdrehbuch</t>
+  </si>
 </sst>
 </file>
 
@@ -304,7 +307,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,7 +625,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1446,9 +1449,18 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="8">
+        <v>43985</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6F9C4-1C0E-9542-904B-7A18216074C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71D7371-868D-2243-800A-693F10E82A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Abnahmetest + Testdrehbuch</t>
+  </si>
+  <si>
+    <t>Teamsbesprechung</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1463,9 +1466,18 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>43989</v>
+      </c>
+      <c r="B60" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71D7371-868D-2243-800A-693F10E82A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B94D47-4422-2245-AA8B-F34FDB4C4FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
   <si>
     <t>Datum</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Teamsbesprechung</t>
+  </si>
+  <si>
+    <t>Proseminarbesuch</t>
+  </si>
+  <si>
+    <t>Mängel ausbessern</t>
   </si>
 </sst>
 </file>
@@ -628,7 +634,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1480,14 +1486,32 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="8">
+        <v>43990</v>
+      </c>
+      <c r="B61" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="8">
+        <v>43993</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B94D47-4422-2245-AA8B-F34FDB4C4FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C53D137-A32C-D54B-875C-226A17939B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Mängel ausbessern</t>
+  </si>
+  <si>
+    <t>Mängel  ausbessern</t>
+  </si>
+  <si>
+    <t>Filter Funktionen</t>
   </si>
 </sst>
 </file>
@@ -634,7 +640,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1514,14 +1520,32 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>43994</v>
+      </c>
+      <c r="B63" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>43995</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8"/>

--- a/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
+++ b/Documentation/Time Management/Zeitaufzeichnung_Isabella.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellaschmut/Desktop/g2t2/Documentation/Time Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C53D137-A32C-D54B-875C-226A17939B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757C556F-C773-9A42-A4B2-AFBDB48E19F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
   <si>
     <t>Datum</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Filter Funktionen</t>
+  </si>
+  <si>
+    <t>Tests schreiben</t>
+  </si>
+  <si>
+    <t>Teammeeting</t>
   </si>
 </sst>
 </file>
@@ -637,10 +643,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1548,14 +1554,32 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="8">
+        <v>44000</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="8">
+        <v>44000</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8"/>
